--- a/labelled_csv_files/labelled_M_0095_08y10m_1_fa.xlsx
+++ b/labelled_csv_files/labelled_M_0095_08y10m_1_fa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shababayub/go/src/github.com/s4ayub/fydp/labelled_csv_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahul/Documents/fydp/labelled_csv_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B3FAE70-BE1A-D64F-86F8-6BD704D2445D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{181C4F53-5EDD-8344-8184-CEAE9EA23B3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14960" yWindow="460" windowWidth="10560" windowHeight="15000"/>
+    <workbookView xWindow="1280" yWindow="600" windowWidth="14320" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="labelled_M_0095_08y10m_1_fa" sheetId="1" r:id="rId1"/>
@@ -1176,8 +1176,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2019,16 +2019,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F242"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A234" zoomScale="161" workbookViewId="0">
       <selection activeCell="F238" sqref="F238"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2145,7 +2145,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2205,7 +2205,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2245,7 +2245,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2325,7 +2325,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2385,7 +2385,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2445,7 +2445,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2565,7 +2565,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2585,7 +2585,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2605,7 +2605,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -2685,7 +2685,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2785,7 +2785,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2805,7 +2805,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2865,7 +2865,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>41</v>
       </c>
@@ -2885,7 +2885,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>42</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>43</v>
       </c>
@@ -2925,7 +2925,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>44</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>45</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>46</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>47</v>
       </c>
@@ -3005,7 +3005,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>48</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>49</v>
       </c>
@@ -3045,7 +3045,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>50</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>51</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>52</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>53</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>54</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>55</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>56</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>57</v>
       </c>
@@ -3205,7 +3205,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>58</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>59</v>
       </c>
@@ -3245,7 +3245,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>60</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>61</v>
       </c>
@@ -3285,7 +3285,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>62</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>63</v>
       </c>
@@ -3325,7 +3325,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>64</v>
       </c>
@@ -3345,7 +3345,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>65</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>66</v>
       </c>
@@ -3385,7 +3385,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>67</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>68</v>
       </c>
@@ -3425,7 +3425,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>69</v>
       </c>
@@ -3445,7 +3445,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>70</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>71</v>
       </c>
@@ -3485,7 +3485,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>72</v>
       </c>
@@ -3505,7 +3505,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>73</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>74</v>
       </c>
@@ -3545,7 +3545,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>75</v>
       </c>
@@ -3565,7 +3565,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>76</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>77</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>78</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>79</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>80</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>81</v>
       </c>
@@ -3685,7 +3685,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>82</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>83</v>
       </c>
@@ -3725,7 +3725,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>84</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>85</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>86</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>87</v>
       </c>
@@ -3805,7 +3805,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>88</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>89</v>
       </c>
@@ -3845,7 +3845,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>90</v>
       </c>
@@ -3865,7 +3865,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>91</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>92</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>93</v>
       </c>
@@ -3925,7 +3925,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>94</v>
       </c>
@@ -3945,7 +3945,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>95</v>
       </c>
@@ -3965,7 +3965,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>96</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>97</v>
       </c>
@@ -4005,7 +4005,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>98</v>
       </c>
@@ -4025,7 +4025,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>99</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>100</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>101</v>
       </c>
@@ -4085,7 +4085,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>102</v>
       </c>
@@ -4105,7 +4105,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>103</v>
       </c>
@@ -4125,7 +4125,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>104</v>
       </c>
@@ -4145,7 +4145,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>105</v>
       </c>
@@ -4165,7 +4165,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>106</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>107</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>108</v>
       </c>
@@ -4225,7 +4225,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>109</v>
       </c>
@@ -4245,7 +4245,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>110</v>
       </c>
@@ -4265,7 +4265,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>111</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>112</v>
       </c>
@@ -4305,7 +4305,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>113</v>
       </c>
@@ -4325,7 +4325,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>114</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>115</v>
       </c>
@@ -4365,7 +4365,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>116</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>117</v>
       </c>
@@ -4405,7 +4405,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>118</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>119</v>
       </c>
@@ -4445,7 +4445,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>120</v>
       </c>
@@ -4465,7 +4465,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>121</v>
       </c>
@@ -4485,7 +4485,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>122</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>123</v>
       </c>
@@ -4525,7 +4525,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>124</v>
       </c>
@@ -4545,7 +4545,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>125</v>
       </c>
@@ -4565,7 +4565,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>126</v>
       </c>
@@ -4585,7 +4585,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>127</v>
       </c>
@@ -4605,7 +4605,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>128</v>
       </c>
@@ -4625,7 +4625,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>129</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>130</v>
       </c>
@@ -4665,7 +4665,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>131</v>
       </c>
@@ -4685,7 +4685,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>132</v>
       </c>
@@ -4705,7 +4705,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>133</v>
       </c>
@@ -4725,7 +4725,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>134</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>135</v>
       </c>
@@ -4765,7 +4765,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>136</v>
       </c>
@@ -4785,7 +4785,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>137</v>
       </c>
@@ -4805,7 +4805,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>138</v>
       </c>
@@ -4825,7 +4825,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>139</v>
       </c>
@@ -4845,7 +4845,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>140</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>141</v>
       </c>
@@ -4885,7 +4885,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>142</v>
       </c>
@@ -4905,7 +4905,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>143</v>
       </c>
@@ -4925,7 +4925,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>144</v>
       </c>
@@ -4945,7 +4945,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>145</v>
       </c>
@@ -4965,7 +4965,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>146</v>
       </c>
@@ -4985,7 +4985,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>147</v>
       </c>
@@ -5005,7 +5005,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>148</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>149</v>
       </c>
@@ -5045,7 +5045,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>150</v>
       </c>
@@ -5065,7 +5065,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>151</v>
       </c>
@@ -5085,7 +5085,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>152</v>
       </c>
@@ -5105,7 +5105,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>153</v>
       </c>
@@ -5125,7 +5125,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>154</v>
       </c>
@@ -5145,7 +5145,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>155</v>
       </c>
@@ -5165,7 +5165,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>156</v>
       </c>
@@ -5185,7 +5185,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>157</v>
       </c>
@@ -5205,7 +5205,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>158</v>
       </c>
@@ -5225,7 +5225,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>159</v>
       </c>
@@ -5245,7 +5245,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>160</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>161</v>
       </c>
@@ -5285,7 +5285,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>162</v>
       </c>
@@ -5305,7 +5305,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>163</v>
       </c>
@@ -5325,7 +5325,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>164</v>
       </c>
@@ -5345,7 +5345,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>165</v>
       </c>
@@ -5365,7 +5365,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>166</v>
       </c>
@@ -5385,7 +5385,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>167</v>
       </c>
@@ -5405,7 +5405,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>168</v>
       </c>
@@ -5425,7 +5425,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>169</v>
       </c>
@@ -5445,7 +5445,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>170</v>
       </c>
@@ -5465,7 +5465,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>171</v>
       </c>
@@ -5485,7 +5485,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>172</v>
       </c>
@@ -5505,7 +5505,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>173</v>
       </c>
@@ -5525,7 +5525,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>174</v>
       </c>
@@ -5545,7 +5545,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>175</v>
       </c>
@@ -5565,7 +5565,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>176</v>
       </c>
@@ -5585,7 +5585,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>177</v>
       </c>
@@ -5605,7 +5605,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>178</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>179</v>
       </c>
@@ -5645,7 +5645,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>180</v>
       </c>
@@ -5665,7 +5665,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>181</v>
       </c>
@@ -5685,7 +5685,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>182</v>
       </c>
@@ -5705,7 +5705,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>183</v>
       </c>
@@ -5725,7 +5725,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>184</v>
       </c>
@@ -5745,7 +5745,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>185</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>186</v>
       </c>
@@ -5785,7 +5785,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>187</v>
       </c>
@@ -5805,7 +5805,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>188</v>
       </c>
@@ -5825,7 +5825,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>189</v>
       </c>
@@ -5845,7 +5845,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>190</v>
       </c>
@@ -5865,7 +5865,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>191</v>
       </c>
@@ -5885,7 +5885,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>192</v>
       </c>
@@ -5905,7 +5905,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>193</v>
       </c>
@@ -5925,7 +5925,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>194</v>
       </c>
@@ -5945,7 +5945,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>195</v>
       </c>
@@ -5965,7 +5965,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>196</v>
       </c>
@@ -5985,7 +5985,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>197</v>
       </c>
@@ -6005,7 +6005,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>198</v>
       </c>
@@ -6025,7 +6025,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>199</v>
       </c>
@@ -6045,7 +6045,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>200</v>
       </c>
@@ -6065,7 +6065,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>201</v>
       </c>
@@ -6085,7 +6085,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>202</v>
       </c>
@@ -6105,7 +6105,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>203</v>
       </c>
@@ -6125,7 +6125,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>204</v>
       </c>
@@ -6145,7 +6145,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>205</v>
       </c>
@@ -6165,7 +6165,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>206</v>
       </c>
@@ -6185,7 +6185,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>207</v>
       </c>
@@ -6205,7 +6205,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>208</v>
       </c>
@@ -6225,7 +6225,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>209</v>
       </c>
@@ -6245,7 +6245,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>210</v>
       </c>
@@ -6265,7 +6265,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="213" spans="1:6">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>211</v>
       </c>
@@ -6285,7 +6285,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>212</v>
       </c>
@@ -6305,7 +6305,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="215" spans="1:6">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>213</v>
       </c>
@@ -6325,7 +6325,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>214</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="217" spans="1:6">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>215</v>
       </c>
@@ -6365,7 +6365,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="218" spans="1:6">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>216</v>
       </c>
@@ -6385,7 +6385,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="219" spans="1:6">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>217</v>
       </c>
@@ -6405,7 +6405,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="220" spans="1:6">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>218</v>
       </c>
@@ -6425,7 +6425,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="221" spans="1:6">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>219</v>
       </c>
@@ -6445,7 +6445,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="222" spans="1:6">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>220</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="223" spans="1:6">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>221</v>
       </c>
@@ -6485,7 +6485,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="224" spans="1:6">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>222</v>
       </c>
@@ -6505,7 +6505,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="225" spans="1:6">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>223</v>
       </c>
@@ -6525,7 +6525,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="226" spans="1:6">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>224</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="227" spans="1:6">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>225</v>
       </c>
@@ -6565,7 +6565,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="228" spans="1:6">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>226</v>
       </c>
@@ -6585,7 +6585,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="229" spans="1:6">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>227</v>
       </c>
@@ -6605,7 +6605,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="230" spans="1:6">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>228</v>
       </c>
@@ -6625,7 +6625,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="231" spans="1:6">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>229</v>
       </c>
@@ -6645,7 +6645,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="232" spans="1:6">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>230</v>
       </c>
@@ -6665,7 +6665,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="233" spans="1:6">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>231</v>
       </c>
@@ -6685,7 +6685,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="234" spans="1:6">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>232</v>
       </c>
@@ -6705,7 +6705,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="235" spans="1:6">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>233</v>
       </c>
@@ -6725,7 +6725,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="236" spans="1:6">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>234</v>
       </c>
@@ -6745,7 +6745,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="237" spans="1:6">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>235</v>
       </c>
@@ -6765,7 +6765,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="238" spans="1:6">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>236</v>
       </c>
@@ -6785,7 +6785,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="239" spans="1:6">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>237</v>
       </c>
@@ -6805,7 +6805,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="240" spans="1:6">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>238</v>
       </c>
@@ -6825,7 +6825,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="241" spans="1:6">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>239</v>
       </c>
@@ -6845,7 +6845,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="242" spans="1:6">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>240</v>
       </c>
